--- a/Surveys/2022/08_09_2022_Tracer_Survey.xlsx
+++ b/Surveys/2022/08_09_2022_Tracer_Survey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\RFID_tracers\Surveys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\RFID_tracers\surveys\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912A4422-BEA3-4B0C-9BA9-C5DA5E7289F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBA376D-9091-4E54-AC55-B7202E5788A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B2B2A732-FF08-4044-9D28-51D663EBD29D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B2B2A732-FF08-4044-9D28-51D663EBD29D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="22">
   <si>
     <t>Rock #</t>
   </si>
@@ -97,16 +97,10 @@
     <t>GROUP 2: UP</t>
   </si>
   <si>
-    <t>60 (under 120)</t>
-  </si>
-  <si>
     <t>GROUP 3: UP</t>
   </si>
   <si>
     <t>GROUP 4: UP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73 * </t>
   </si>
 </sst>
 </file>
@@ -131,12 +125,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,6 +201,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,12 +305,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -338,17 +333,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -359,19 +369,10 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -690,97 +691,97 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F533EF27-28D8-47A3-9C46-B406200BBC5B}">
   <dimension ref="A1:O102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R57" sqref="R57"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
     <col min="15" max="15" width="17" customWidth="1"/>
-    <col min="21" max="21" width="12.109375" customWidth="1"/>
-    <col min="22" max="22" width="13.44140625" customWidth="1"/>
+    <col min="21" max="21" width="12.140625" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="7" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="23"/>
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="6">
         <v>13</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="6">
         <v>12</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="6">
         <v>10</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <v>3</v>
       </c>
       <c r="B3" s="1">
@@ -794,18 +795,18 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="15">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
         <v>25</v>
       </c>
       <c r="B4" s="2">
@@ -819,18 +820,18 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="15">
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
         <v>30</v>
       </c>
       <c r="B5" s="2">
@@ -844,18 +845,18 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
         <v>99</v>
       </c>
       <c r="B6" s="2">
@@ -869,18 +870,18 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
         <v>54</v>
       </c>
       <c r="B7" s="2">
@@ -894,18 +895,18 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="17">
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
         <v>87</v>
       </c>
       <c r="B8" s="2">
@@ -919,143 +920,143 @@
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="6">
         <v>10</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <v>7</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>6</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
         <v>113</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="29" t="s">
+      <c r="B10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
         <v>42</v>
       </c>
-      <c r="B11" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="29" t="s">
+      <c r="B11" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
         <v>4</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="29" t="s">
+      <c r="B12" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="15">
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
         <v>105</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="29" t="s">
+      <c r="B13" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
         <v>33</v>
       </c>
       <c r="B14" s="2">
@@ -1069,43 +1070,43 @@
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="16">
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
         <v>117</v>
       </c>
-      <c r="B15" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="29" t="s">
+      <c r="B15" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
         <v>26</v>
       </c>
       <c r="B16" s="2">
@@ -1119,18 +1120,18 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="16">
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
         <v>55</v>
       </c>
       <c r="B17" s="2">
@@ -1144,68 +1145,68 @@
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="17">
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
         <v>71</v>
       </c>
-      <c r="B18" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="29" t="s">
+      <c r="B18" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="17">
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
         <v>51</v>
       </c>
-      <c r="B19" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="29" t="s">
+      <c r="B19" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="17">
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
         <v>80</v>
       </c>
       <c r="B20" s="2">
@@ -1219,18 +1220,18 @@
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="17">
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
         <v>63</v>
       </c>
       <c r="B21" s="2">
@@ -1244,44 +1245,44 @@
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="17">
-        <v>50</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="29" t="s">
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="29">
+        <v>1050</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="17">
-        <v>26</v>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="29">
+        <v>1026</v>
       </c>
       <c r="B23" s="2">
         <v>1.69</v>
@@ -1294,19 +1295,19 @@
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="17">
-        <v>55</v>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="29">
+        <v>1055</v>
       </c>
       <c r="B24" s="2">
         <v>1.7</v>
@@ -1319,44 +1320,44 @@
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="17">
-        <v>37</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="29" t="s">
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="29">
+        <v>1037</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="18">
-        <v>36</v>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="29">
+        <v>1036</v>
       </c>
       <c r="B26" s="2">
         <v>1.68</v>
@@ -1369,18 +1370,18 @@
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="11">
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
         <v>7</v>
       </c>
       <c r="B27" s="2">
@@ -1394,18 +1395,18 @@
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="14">
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
         <v>44</v>
       </c>
       <c r="B28" s="2">
@@ -1419,18 +1420,18 @@
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="15">
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
         <v>13</v>
       </c>
       <c r="B29" s="2">
@@ -1444,18 +1445,18 @@
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="15">
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
         <v>16</v>
       </c>
       <c r="B30" s="2">
@@ -1469,18 +1470,18 @@
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="15">
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
         <v>112</v>
       </c>
       <c r="B31" s="2">
@@ -1494,18 +1495,18 @@
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="16">
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
         <v>32</v>
       </c>
       <c r="B32" s="2">
@@ -1519,18 +1520,18 @@
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="16">
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
         <v>59</v>
       </c>
       <c r="B33" s="2">
@@ -1544,18 +1545,18 @@
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="16">
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
         <v>57</v>
       </c>
       <c r="B34" s="2">
@@ -1569,18 +1570,18 @@
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="16">
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
         <v>104</v>
       </c>
       <c r="B35" s="2">
@@ -1594,18 +1595,18 @@
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="17">
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="15">
         <v>127</v>
       </c>
       <c r="B36" s="2">
@@ -1619,18 +1620,18 @@
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="17">
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="15">
         <v>134</v>
       </c>
       <c r="B37" s="2">
@@ -1644,18 +1645,18 @@
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="17">
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="15">
         <v>79</v>
       </c>
       <c r="B38" s="2">
@@ -1669,19 +1670,19 @@
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="18">
-        <v>17</v>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="29">
+        <v>1017</v>
       </c>
       <c r="B39" s="2">
         <v>1.39</v>
@@ -1694,19 +1695,19 @@
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="18">
-        <v>44</v>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="29">
+        <v>1044</v>
       </c>
       <c r="B40" s="2">
         <v>1.28</v>
@@ -1719,19 +1720,19 @@
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="18">
-        <v>65</v>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="29">
+        <v>1065</v>
       </c>
       <c r="B41" s="2">
         <v>1.35</v>
@@ -1744,92 +1745,92 @@
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" s="19" t="s">
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="7" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7" t="s">
+      <c r="F43" s="23"/>
+      <c r="G43" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7" t="s">
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="8">
-        <v>17</v>
-      </c>
-      <c r="C44" s="8">
+      <c r="B44" s="6">
+        <v>17</v>
+      </c>
+      <c r="C44" s="6">
         <v>16</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="6">
         <v>15</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G44" s="10" t="s">
+      <c r="G44" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H44" s="10" t="s">
+      <c r="H44" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I44" s="10" t="s">
+      <c r="I44" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J44" s="10" t="s">
+      <c r="J44" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K44" s="10" t="s">
+      <c r="K44" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L44" s="10" t="s">
+      <c r="L44" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M44" s="10" t="s">
+      <c r="M44" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N44" s="10" t="s">
+      <c r="N44" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="O44" s="10" t="s">
+      <c r="O44" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" s="14">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="12">
         <v>22</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -1843,18 +1844,18 @@
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="14">
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="12">
         <v>114</v>
       </c>
       <c r="B46" s="2">
@@ -1868,18 +1869,18 @@
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="15">
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="13">
         <v>90</v>
       </c>
       <c r="B47" s="2">
@@ -1893,18 +1894,18 @@
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="12"/>
-      <c r="O47" s="12"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" s="15">
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="13">
         <v>19</v>
       </c>
       <c r="B48" s="2">
@@ -1918,18 +1919,18 @@
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="12"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="15">
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="13">
         <v>106</v>
       </c>
       <c r="B49" s="2">
@@ -1943,18 +1944,18 @@
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="12"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" s="16">
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="14">
         <v>49</v>
       </c>
       <c r="B50" s="2">
@@ -1968,18 +1969,18 @@
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" s="16">
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="14">
         <v>128</v>
       </c>
       <c r="B51" s="2">
@@ -1993,18 +1994,18 @@
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" s="16">
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="14">
         <v>47</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -2018,18 +2019,18 @@
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53" s="16">
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="14">
         <v>39</v>
       </c>
       <c r="B53" s="2">
@@ -2043,18 +2044,18 @@
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="3"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="12"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54" s="16">
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="14">
         <v>120</v>
       </c>
       <c r="B54" s="2">
@@ -2068,19 +2069,19 @@
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="12"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A55" s="16" t="s">
-        <v>20</v>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="14">
+        <v>60</v>
       </c>
       <c r="B55" s="2">
         <v>1.21</v>
@@ -2093,18 +2094,18 @@
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="12"/>
-      <c r="O55" s="12"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A56" s="17">
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="15">
         <v>130</v>
       </c>
       <c r="B56" s="2">
@@ -2118,18 +2119,18 @@
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="12"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A57" s="17">
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="15">
         <v>123</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -2143,18 +2144,18 @@
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
-      <c r="O57" s="12"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A58" s="17">
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="15">
         <v>124</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -2168,18 +2169,18 @@
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="12"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A59" s="17">
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="15">
         <v>81</v>
       </c>
       <c r="B59" s="2">
@@ -2193,19 +2194,19 @@
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="12"/>
-      <c r="O59" s="12"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A60" s="17">
-        <v>6</v>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="29">
+        <v>1006</v>
       </c>
       <c r="B60" s="2">
         <v>1.1100000000000001</v>
@@ -2218,19 +2219,19 @@
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="12"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A61" s="17">
-        <v>11</v>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="29">
+        <v>1011</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>17</v>
@@ -2243,19 +2244,19 @@
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="12"/>
-      <c r="O61" s="12"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A62" s="17">
-        <v>48</v>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="29">
+        <v>1048</v>
       </c>
       <c r="B62" s="2">
         <v>0.79</v>
@@ -2268,19 +2269,19 @@
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="12"/>
-      <c r="O62" s="12"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A63" s="17">
-        <v>62</v>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="29">
+        <v>1062</v>
       </c>
       <c r="B63" s="2">
         <v>1.68</v>
@@ -2293,92 +2294,92 @@
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="12"/>
-      <c r="O63" s="12"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A65" s="21" t="s">
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="26"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="M65" s="23"/>
+      <c r="N65" s="23"/>
+      <c r="O65" s="23"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="6">
+        <v>22</v>
+      </c>
+      <c r="C66" s="6">
         <v>21</v>
       </c>
-      <c r="B65" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C65" s="23"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M65" s="7"/>
-      <c r="N65" s="7"/>
-      <c r="O65" s="7"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A66" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" s="8">
-        <v>22</v>
-      </c>
-      <c r="C66" s="8">
-        <v>21</v>
-      </c>
-      <c r="D66" s="8">
+      <c r="D66" s="6">
         <v>20</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="E66" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F66" s="9" t="s">
+      <c r="F66" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G66" s="10" t="s">
+      <c r="G66" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H66" s="10" t="s">
+      <c r="H66" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I66" s="10" t="s">
+      <c r="I66" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J66" s="10" t="s">
+      <c r="J66" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K66" s="10" t="s">
+      <c r="K66" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L66" s="10" t="s">
+      <c r="L66" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M66" s="10" t="s">
+      <c r="M66" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N66" s="10" t="s">
+      <c r="N66" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="O66" s="10" t="s">
+      <c r="O66" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A67" s="11">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
         <v>8</v>
       </c>
       <c r="B67" s="2">
@@ -2392,18 +2393,18 @@
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="12"/>
-      <c r="L67" s="12"/>
-      <c r="M67" s="12"/>
-      <c r="N67" s="12"/>
-      <c r="O67" s="12"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A68" s="14">
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="12">
         <v>2</v>
       </c>
       <c r="B68" s="2">
@@ -2417,18 +2418,18 @@
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12"/>
-      <c r="N68" s="12"/>
-      <c r="O68" s="12"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A69" s="14">
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="12">
         <v>43</v>
       </c>
       <c r="B69" s="2">
@@ -2442,18 +2443,18 @@
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12"/>
-      <c r="N69" s="12"/>
-      <c r="O69" s="12"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A70" s="15">
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" s="13">
         <v>15</v>
       </c>
       <c r="B70" s="2">
@@ -2467,18 +2468,18 @@
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="12"/>
-      <c r="O70" s="12"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A71" s="15">
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" s="13">
         <v>94</v>
       </c>
       <c r="B71" s="2">
@@ -2492,18 +2493,18 @@
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="12"/>
-      <c r="N71" s="12"/>
-      <c r="O71" s="12"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A72" s="15">
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="13">
         <v>95</v>
       </c>
       <c r="B72" s="2">
@@ -2517,18 +2518,18 @@
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="12"/>
-      <c r="M72" s="12"/>
-      <c r="N72" s="12"/>
-      <c r="O72" s="12"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A73" s="16">
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="14">
         <v>109</v>
       </c>
       <c r="B73" s="2">
@@ -2542,18 +2543,18 @@
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="12"/>
-      <c r="N73" s="12"/>
-      <c r="O73" s="12"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A74" s="16">
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="10"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" s="14">
         <v>66</v>
       </c>
       <c r="B74" s="2"/>
@@ -2561,19 +2562,19 @@
       <c r="D74" s="2"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
-      <c r="L74" s="12"/>
-      <c r="M74" s="12"/>
-      <c r="N74" s="12"/>
-      <c r="O74" s="12"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A75" s="17" t="s">
-        <v>23</v>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="15">
+        <v>73</v>
       </c>
       <c r="B75" s="2">
         <v>1.5</v>
@@ -2586,18 +2587,18 @@
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="3"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
-      <c r="L75" s="12"/>
-      <c r="M75" s="12"/>
-      <c r="N75" s="12"/>
-      <c r="O75" s="12"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A76" s="17">
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="15">
         <v>129</v>
       </c>
       <c r="B76" s="2">
@@ -2611,18 +2612,18 @@
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="12"/>
-      <c r="L76" s="12"/>
-      <c r="M76" s="12"/>
-      <c r="N76" s="12"/>
-      <c r="O76" s="12"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A77" s="17">
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="15">
         <v>70</v>
       </c>
       <c r="B77" s="2">
@@ -2636,18 +2637,18 @@
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="12"/>
-      <c r="L77" s="12"/>
-      <c r="M77" s="12"/>
-      <c r="N77" s="12"/>
-      <c r="O77" s="12"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A78" s="17">
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="10"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="15">
         <v>58</v>
       </c>
       <c r="B78" s="2">
@@ -2661,18 +2662,18 @@
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
-      <c r="L78" s="12"/>
-      <c r="M78" s="12"/>
-      <c r="N78" s="12"/>
-      <c r="O78" s="12"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A79" s="17">
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="10"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" s="15">
         <v>136</v>
       </c>
       <c r="B79" s="2">
@@ -2686,168 +2687,168 @@
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="12"/>
-      <c r="L79" s="12"/>
-      <c r="M79" s="12"/>
-      <c r="N79" s="12"/>
-      <c r="O79" s="12"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A80" s="17">
-        <v>39</v>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="10"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" s="29">
+        <v>1039</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="12"/>
-      <c r="L80" s="12"/>
-      <c r="M80" s="12"/>
-      <c r="N80" s="12"/>
-      <c r="O80" s="12"/>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A81" s="17">
-        <v>5</v>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="10"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" s="29">
+        <v>1005</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="12"/>
-      <c r="L81" s="12"/>
-      <c r="M81" s="12"/>
-      <c r="N81" s="12"/>
-      <c r="O81" s="12"/>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A82" s="17">
-        <v>31</v>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="10"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" s="29">
+        <v>1031</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="12"/>
-      <c r="L82" s="12"/>
-      <c r="M82" s="12"/>
-      <c r="N82" s="12"/>
-      <c r="O82" s="12"/>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A83" s="17">
-        <v>10</v>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="10"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="10"/>
+      <c r="N82" s="10"/>
+      <c r="O82" s="10"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" s="29">
+        <v>1010</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="12"/>
-      <c r="I83" s="12"/>
-      <c r="J83" s="12"/>
-      <c r="K83" s="12"/>
-      <c r="L83" s="12"/>
-      <c r="M83" s="12"/>
-      <c r="N83" s="12"/>
-      <c r="O83" s="12"/>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A85" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B85" s="26" t="s">
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
+      <c r="L83" s="10"/>
+      <c r="M83" s="10"/>
+      <c r="N83" s="10"/>
+      <c r="O83" s="10"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B85" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C85" s="27"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="7" t="s">
+      <c r="C85" s="21"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7" t="s">
+      <c r="F85" s="23"/>
+      <c r="G85" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="7"/>
-      <c r="L85" s="7" t="s">
+      <c r="H85" s="23"/>
+      <c r="I85" s="23"/>
+      <c r="J85" s="23"/>
+      <c r="K85" s="23"/>
+      <c r="L85" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M85" s="7"/>
-      <c r="N85" s="7"/>
-      <c r="O85" s="7"/>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A86" s="8" t="s">
+      <c r="M85" s="23"/>
+      <c r="N85" s="23"/>
+      <c r="O85" s="23"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="8">
+      <c r="B86" s="6">
         <v>31</v>
       </c>
-      <c r="C86" s="8">
+      <c r="C86" s="6">
         <v>28</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D86" s="6">
         <v>27</v>
       </c>
-      <c r="E86" s="9" t="s">
+      <c r="E86" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F86" s="9" t="s">
+      <c r="F86" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G86" s="10" t="s">
+      <c r="G86" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H86" s="10" t="s">
+      <c r="H86" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I86" s="10" t="s">
+      <c r="I86" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J86" s="10" t="s">
+      <c r="J86" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K86" s="10" t="s">
+      <c r="K86" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L86" s="10" t="s">
+      <c r="L86" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M86" s="10" t="s">
+      <c r="M86" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N86" s="10" t="s">
+      <c r="N86" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="O86" s="10" t="s">
+      <c r="O86" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A87" s="11">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87" s="9">
         <v>1</v>
       </c>
       <c r="B87" s="1">
@@ -2861,18 +2862,18 @@
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="12"/>
-      <c r="K87" s="12"/>
-      <c r="L87" s="12"/>
-      <c r="M87" s="12"/>
-      <c r="N87" s="12"/>
-      <c r="O87" s="12"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A88" s="14">
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="10"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="10"/>
+      <c r="O87" s="10"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88" s="12">
         <v>41</v>
       </c>
       <c r="B88" s="2">
@@ -2886,18 +2887,18 @@
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="12"/>
-      <c r="L88" s="12"/>
-      <c r="M88" s="12"/>
-      <c r="N88" s="12"/>
-      <c r="O88" s="12"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A89" s="15">
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="10"/>
+      <c r="O88" s="10"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89" s="13">
         <v>17</v>
       </c>
       <c r="B89" s="2">
@@ -2911,18 +2912,18 @@
       </c>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="12"/>
-      <c r="L89" s="12"/>
-      <c r="M89" s="12"/>
-      <c r="N89" s="12"/>
-      <c r="O89" s="12"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A90" s="15">
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="10"/>
+      <c r="M89" s="10"/>
+      <c r="N89" s="10"/>
+      <c r="O89" s="10"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90" s="13">
         <v>29</v>
       </c>
       <c r="B90" s="2">
@@ -2936,18 +2937,18 @@
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
-      <c r="J90" s="12"/>
-      <c r="K90" s="12"/>
-      <c r="L90" s="12"/>
-      <c r="M90" s="12"/>
-      <c r="N90" s="12"/>
-      <c r="O90" s="12"/>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A91" s="15">
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="10"/>
+      <c r="K90" s="10"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="10"/>
+      <c r="N90" s="10"/>
+      <c r="O90" s="10"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91" s="13">
         <v>14</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -2961,18 +2962,18 @@
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="12"/>
-      <c r="J91" s="12"/>
-      <c r="K91" s="12"/>
-      <c r="L91" s="12"/>
-      <c r="M91" s="12"/>
-      <c r="N91" s="12"/>
-      <c r="O91" s="12"/>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A92" s="16">
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="10"/>
+      <c r="K91" s="10"/>
+      <c r="L91" s="10"/>
+      <c r="M91" s="10"/>
+      <c r="N91" s="10"/>
+      <c r="O91" s="10"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A92" s="14">
         <v>119</v>
       </c>
       <c r="B92" s="2">
@@ -2986,18 +2987,18 @@
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="12"/>
-      <c r="L92" s="12"/>
-      <c r="M92" s="12"/>
-      <c r="N92" s="12"/>
-      <c r="O92" s="12"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A93" s="16">
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="10"/>
+      <c r="K92" s="10"/>
+      <c r="L92" s="10"/>
+      <c r="M92" s="10"/>
+      <c r="N92" s="10"/>
+      <c r="O92" s="10"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A93" s="14">
         <v>45</v>
       </c>
       <c r="B93" s="2">
@@ -3011,18 +3012,18 @@
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
-      <c r="J93" s="12"/>
-      <c r="K93" s="12"/>
-      <c r="L93" s="12"/>
-      <c r="M93" s="12"/>
-      <c r="N93" s="12"/>
-      <c r="O93" s="12"/>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A94" s="16">
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10"/>
+      <c r="K93" s="10"/>
+      <c r="L93" s="10"/>
+      <c r="M93" s="10"/>
+      <c r="N93" s="10"/>
+      <c r="O93" s="10"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94" s="14">
         <v>20</v>
       </c>
       <c r="B94" s="2">
@@ -3036,18 +3037,18 @@
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="12"/>
-      <c r="I94" s="12"/>
-      <c r="J94" s="12"/>
-      <c r="K94" s="12"/>
-      <c r="L94" s="12"/>
-      <c r="M94" s="12"/>
-      <c r="N94" s="12"/>
-      <c r="O94" s="12"/>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A95" s="16">
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="10"/>
+      <c r="K94" s="10"/>
+      <c r="L94" s="10"/>
+      <c r="M94" s="10"/>
+      <c r="N94" s="10"/>
+      <c r="O94" s="10"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95" s="14">
         <v>34</v>
       </c>
       <c r="B95" s="2">
@@ -3061,18 +3062,18 @@
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="3"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="12"/>
-      <c r="I95" s="12"/>
-      <c r="J95" s="12"/>
-      <c r="K95" s="12"/>
-      <c r="L95" s="12"/>
-      <c r="M95" s="12"/>
-      <c r="N95" s="12"/>
-      <c r="O95" s="12"/>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A96" s="17">
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="10"/>
+      <c r="K95" s="10"/>
+      <c r="L95" s="10"/>
+      <c r="M95" s="10"/>
+      <c r="N95" s="10"/>
+      <c r="O95" s="10"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96" s="15">
         <v>64</v>
       </c>
       <c r="B96" s="2">
@@ -3086,18 +3087,18 @@
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="12"/>
-      <c r="I96" s="12"/>
-      <c r="J96" s="12"/>
-      <c r="K96" s="12"/>
-      <c r="L96" s="12"/>
-      <c r="M96" s="12"/>
-      <c r="N96" s="12"/>
-      <c r="O96" s="12"/>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A97" s="17">
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="10"/>
+      <c r="K96" s="10"/>
+      <c r="L96" s="10"/>
+      <c r="M96" s="10"/>
+      <c r="N96" s="10"/>
+      <c r="O96" s="10"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97" s="15">
         <v>56</v>
       </c>
       <c r="B97" s="2">
@@ -3111,18 +3112,18 @@
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="12"/>
-      <c r="I97" s="12"/>
-      <c r="J97" s="12"/>
-      <c r="K97" s="12"/>
-      <c r="L97" s="12"/>
-      <c r="M97" s="12"/>
-      <c r="N97" s="12"/>
-      <c r="O97" s="12"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A98" s="17">
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="10"/>
+      <c r="K97" s="10"/>
+      <c r="L97" s="10"/>
+      <c r="M97" s="10"/>
+      <c r="N97" s="10"/>
+      <c r="O97" s="10"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A98" s="15">
         <v>78</v>
       </c>
       <c r="B98" s="2">
@@ -3136,19 +3137,19 @@
       </c>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="12"/>
-      <c r="I98" s="12"/>
-      <c r="J98" s="12"/>
-      <c r="K98" s="12"/>
-      <c r="L98" s="12"/>
-      <c r="M98" s="12"/>
-      <c r="N98" s="12"/>
-      <c r="O98" s="12"/>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A99" s="18">
-        <v>2</v>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
+      <c r="K98" s="10"/>
+      <c r="L98" s="10"/>
+      <c r="M98" s="10"/>
+      <c r="N98" s="10"/>
+      <c r="O98" s="10"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99" s="29">
+        <v>1002</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>17</v>
@@ -3161,19 +3162,19 @@
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="12"/>
-      <c r="I99" s="12"/>
-      <c r="J99" s="12"/>
-      <c r="K99" s="12"/>
-      <c r="L99" s="12"/>
-      <c r="M99" s="12"/>
-      <c r="N99" s="12"/>
-      <c r="O99" s="12"/>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A100" s="18">
-        <v>14</v>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="10"/>
+      <c r="J99" s="10"/>
+      <c r="K99" s="10"/>
+      <c r="L99" s="10"/>
+      <c r="M99" s="10"/>
+      <c r="N99" s="10"/>
+      <c r="O99" s="10"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A100" s="29">
+        <v>1014</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>17</v>
@@ -3186,19 +3187,19 @@
       </c>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
-      <c r="G100" s="12"/>
-      <c r="H100" s="12"/>
-      <c r="I100" s="12"/>
-      <c r="J100" s="12"/>
-      <c r="K100" s="12"/>
-      <c r="L100" s="12"/>
-      <c r="M100" s="12"/>
-      <c r="N100" s="12"/>
-      <c r="O100" s="12"/>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A101" s="18">
-        <v>43</v>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="10"/>
+      <c r="K100" s="10"/>
+      <c r="L100" s="10"/>
+      <c r="M100" s="10"/>
+      <c r="N100" s="10"/>
+      <c r="O100" s="10"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101" s="29">
+        <v>1043</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>17</v>
@@ -3211,19 +3212,19 @@
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
-      <c r="G101" s="12"/>
-      <c r="H101" s="12"/>
-      <c r="I101" s="12"/>
-      <c r="J101" s="12"/>
-      <c r="K101" s="12"/>
-      <c r="L101" s="12"/>
-      <c r="M101" s="12"/>
-      <c r="N101" s="12"/>
-      <c r="O101" s="12"/>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A102" s="18">
-        <v>58</v>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
+      <c r="I101" s="10"/>
+      <c r="J101" s="10"/>
+      <c r="K101" s="10"/>
+      <c r="L101" s="10"/>
+      <c r="M101" s="10"/>
+      <c r="N101" s="10"/>
+      <c r="O101" s="10"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A102" s="29">
+        <v>1058</v>
       </c>
       <c r="B102" s="2">
         <v>1.93</v>
@@ -3236,19 +3237,23 @@
       </c>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
-      <c r="G102" s="12"/>
-      <c r="H102" s="12"/>
-      <c r="I102" s="12"/>
-      <c r="J102" s="12"/>
-      <c r="K102" s="12"/>
-      <c r="L102" s="12"/>
-      <c r="M102" s="12"/>
-      <c r="N102" s="12"/>
-      <c r="O102" s="12"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="10"/>
+      <c r="K102" s="10"/>
+      <c r="L102" s="10"/>
+      <c r="M102" s="10"/>
+      <c r="N102" s="10"/>
+      <c r="O102" s="10"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="16">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:O1"/>
     <mergeCell ref="B85:D85"/>
     <mergeCell ref="E85:F85"/>
     <mergeCell ref="G85:K85"/>
@@ -3261,10 +3266,6 @@
     <mergeCell ref="E65:F65"/>
     <mergeCell ref="G65:K65"/>
     <mergeCell ref="L65:O65"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="L1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
